--- a/誘電体/周波数特性.xlsx
+++ b/誘電体/周波数特性.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasetakumi/Desktop/誘電体/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2016実験\誘電体\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6810" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,9 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
   <si>
     <t>T</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +66,10 @@
   </si>
   <si>
     <t>R.T.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19℃</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -150,65 +151,251 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>室温</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>虚部</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.10765714285714284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0496571428571426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85942857142857132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85942857142857132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69709714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66985714285714282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7005714285714282E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6985714285714273E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4992000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5668571428571413E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0983999999999982E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10166628571428571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12034285714285713</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13365714285714286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1523365714285714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18173485714285711</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20841599999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23785885714285712</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7842285714285708</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34289999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2006342857142851</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46758857142857135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5869359999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70999771428571412</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8352628571428572</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2119257142857141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.319490857142857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="403605880"/>
+        <c:axId val="403600000"/>
+      </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -253,88 +440,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,19 +533,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>26.91428571428571</c:v>
+                  <c:v>26.914285714285711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.91428571428571</c:v>
+                  <c:v>26.914285714285711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.85714285714285</c:v>
+                  <c:v>26.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.85714285714285</c:v>
+                  <c:v>26.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.85714285714285</c:v>
+                  <c:v>26.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>26.8</c:v>
@@ -367,28 +554,28 @@
                   <c:v>26.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.81142857142857</c:v>
+                  <c:v>26.811428571428571</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>26.79428571428571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.25142857142857</c:v>
+                  <c:v>19.251428571428569</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>26.79428571428571</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.78285714285714</c:v>
+                  <c:v>26.782857142857143</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.77142857142857</c:v>
+                  <c:v>26.771428571428565</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.75999999999999</c:v>
+                  <c:v>26.759999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.75428571428571</c:v>
+                  <c:v>26.754285714285714</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>26.74285714285714</c:v>
@@ -397,271 +584,43 @@
                   <c:v>26.73142857142857</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.72571428571428</c:v>
+                  <c:v>26.725714285714282</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.72571428571428</c:v>
+                  <c:v>26.725714285714282</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>26.72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.72571428571428</c:v>
+                  <c:v>26.725714285714282</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.77142857142857</c:v>
+                  <c:v>26.771428571428565</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27</c:v>
+                  <c:v>26.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.65142857142857</c:v>
+                  <c:v>7.6514285714285704</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.97714285714286</c:v>
+                  <c:v>25.977142857142855</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.32</c:v>
+                  <c:v>26.319999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>26.10285714285714</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.68571428571429</c:v>
+                  <c:v>26.685714285714287</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.23428571428571</c:v>
+                  <c:v>27.234285714285711</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.33714285714285</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>虚部</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.107657142857143</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.049657142857143</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.859428571428571</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.752</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.859428571428571</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7236</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6968</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.697097142857143</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.669857142857143</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.00770057142857143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0669857142857143</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.074992</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0856685714285714</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.090984</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.101666285714286</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.120342857142857</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.133657142857143</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.152336571428571</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.181734857142857</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.208416</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.237858857142857</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.784228571428571</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3429</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.200634285714285</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.467588571428571</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.586936</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.709997714285714</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.835262857142857</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.211925714285714</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.319490857142857</c:v>
+                  <c:v>26.337142857142855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,33 +635,88 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2065100368"/>
-        <c:axId val="-2093232208"/>
+        <c:axId val="404790304"/>
+        <c:axId val="404787168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2065100368"/>
+        <c:axId val="403605880"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周波数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t>(kHz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -738,34 +752,82 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093232208"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="403600000"/>
+        <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2093232208"/>
+        <c:axId val="403600000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30.0"/>
+          <c:max val="30"/>
+          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>誘電率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -801,8 +863,106 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065100368"/>
+        <c:crossAx val="403605880"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404787168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404790304"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404790304"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404787168"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -813,6 +973,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -871,6 +1063,248 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>虚部</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.10251428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5743999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.522742857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2066285714285703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5214857142857153E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2038857142857122E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8633714285714279E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1771999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9885714285714265E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8620571428571415E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8607428571428564E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8581142857142863E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8567999999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8567999999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8554857142857135E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8554857142857135E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1970285714285704E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2066285714285703E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2066285714285703E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2175999999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5554285714285713E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9622857142857125E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1056091428571428</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9739542857142858E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.8900822857142853E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0980828571428556E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4364457142857138E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.3880000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.340514285714285E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404787952"/>
+        <c:axId val="404785208"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -911,88 +1345,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,322 +1438,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>34.17142857142857</c:v>
+                  <c:v>34.171428571428571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.2</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.19428571428571</c:v>
+                  <c:v>34.194285714285712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.19428571428571</c:v>
+                  <c:v>34.194285714285712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.19428571428571</c:v>
+                  <c:v>34.194285714285712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.18857142857142</c:v>
+                  <c:v>34.188571428571429</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.18285714285714</c:v>
+                  <c:v>34.182857142857138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.18857142857142</c:v>
+                  <c:v>34.188571428571429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.17714285714285</c:v>
+                  <c:v>34.177142857142854</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.62857142857143</c:v>
+                  <c:v>26.628571428571426</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.18285714285714</c:v>
+                  <c:v>34.182857142857138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.17714285714285</c:v>
+                  <c:v>34.177142857142854</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.16571428571429</c:v>
+                  <c:v>34.165714285714287</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.16</c:v>
+                  <c:v>34.159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.16</c:v>
+                  <c:v>34.159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.15428571428571</c:v>
+                  <c:v>34.154285714285713</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.15428571428571</c:v>
+                  <c:v>34.154285714285713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.15428571428571</c:v>
+                  <c:v>34.154285714285713</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.19428571428571</c:v>
+                  <c:v>34.194285714285712</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.19428571428571</c:v>
+                  <c:v>34.194285714285712</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.24</c:v>
+                  <c:v>34.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.34285714285714</c:v>
+                  <c:v>34.342857142857142</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.81142857142856</c:v>
+                  <c:v>34.811428571428564</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.15428571428571</c:v>
+                  <c:v>53.154285714285713</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.58857142857142</c:v>
+                  <c:v>32.588571428571427</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33.49371428571428</c:v>
+                  <c:v>33.493714285714283</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32.89085714285714</c:v>
+                  <c:v>32.890857142857136</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34.02857142857142</c:v>
+                  <c:v>34.028571428571425</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.88</c:v>
+                  <c:v>33.880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.38857142857142</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>虚部</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$G$2:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.102514285714286</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1197</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.095744</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0752274285714286</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0820662857142857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0752148571428571</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0820388571428571</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0786337142857143</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.071772</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.00798857142857142</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0786205714285714</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0786074285714286</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0785811428571429</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.078568</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.078568</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0785548571428571</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0785548571428571</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0819702857142857</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0820662857142857</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0820662857142857</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.082176</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0755542857142857</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0696228571428571</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.105609142857143</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0697395428571428</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0489008228571428</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0509808285714285</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0243644571428571</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.0003388</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.0434051428571428</c:v>
+                  <c:v>33.388571428571424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,33 +1540,80 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2093189840"/>
-        <c:axId val="2093193056"/>
+        <c:axId val="404784816"/>
+        <c:axId val="404784424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2093189840"/>
+        <c:axId val="404787952"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周波数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>f(kHz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1396,33 +1649,82 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093193056"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="404785208"/>
+        <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2093193056"/>
+        <c:axId val="404785208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>誘電率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1458,8 +1760,106 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093189840"/>
+        <c:crossAx val="404787952"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404784424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404784816"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404784816"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404784424"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1470,6 +1870,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1528,6 +1960,248 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>虚部</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.11050971428571427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6815999999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7671428571428553E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6971999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8578857142857131E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8617714285714263E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3304000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9471428571428559E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7577142857142862E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9548571428571432E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9591428571428568E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9582857142857155E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0334857142857141E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0371999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5727999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6663771428571423E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1109142857142853E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3247657142857138E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0046514285714277E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2086354285714283E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.781005714285714E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5486171428571424E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3732743085714285</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.7069287542857144E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-6.8858742857142843E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.7386382857142851E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.14384091428571427</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.19808503999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.29655103999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404788344"/>
+        <c:axId val="404788736"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -1568,88 +2242,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,7 +2335,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>46.04571428571428</c:v>
+                  <c:v>46.045714285714283</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>46.08</c:v>
@@ -1670,16 +2344,16 @@
                   <c:v>46.10285714285714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.14285714285713</c:v>
+                  <c:v>46.142857142857132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.17714285714285</c:v>
+                  <c:v>46.177142857142854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.22285714285713</c:v>
+                  <c:v>46.222857142857137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.24571428571428</c:v>
+                  <c:v>46.245714285714278</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>46.28</c:v>
@@ -1688,19 +2362,19 @@
                   <c:v>46.31428571428571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.78857142857142</c:v>
+                  <c:v>38.78857142857143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.3657142857143</c:v>
+                  <c:v>46.36571428571429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.39428571428571</c:v>
+                  <c:v>46.394285714285708</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.38857142857143</c:v>
+                  <c:v>46.388571428571431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.41142857142857</c:v>
+                  <c:v>46.411428571428573</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>46.44</c:v>
@@ -1709,274 +2383,46 @@
                   <c:v>46.44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.44571428571428</c:v>
+                  <c:v>46.445714285714281</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46.46285714285714</c:v>
+                  <c:v>46.462857142857139</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.50285714285714</c:v>
+                  <c:v>46.502857142857138</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46.56571428571428</c:v>
+                  <c:v>46.565714285714279</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.63714285714285</c:v>
+                  <c:v>46.637142857142848</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.86857142857142</c:v>
+                  <c:v>46.868571428571421</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>47.95428571428571</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>77.24571428571428</c:v>
+                  <c:v>77.245714285714286</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42.88765714285714</c:v>
+                  <c:v>42.887657142857144</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45.00571428571428</c:v>
+                  <c:v>45.005714285714284</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43.47508571428571</c:v>
+                  <c:v>43.475085714285711</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>46.10285714285714</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45.64171428571428</c:v>
+                  <c:v>45.641714285714279</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44.864</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>虚部</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$G$2:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.110509714285714</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1152</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.096816</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0876714285714285</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.096972</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0785788571428571</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0786177142857143</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.083304</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0694714285714285</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.00775771428571428</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0695485714285714</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0695914285714286</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0695828571428571</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0603348571428571</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.060372</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.055728</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0566637714285714</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0511091428571428</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0432476571428571</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0400465142857143</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0320863542857143</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0178100571428571</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.00354861714285714</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.373274308571428</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.0170692875428571</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.0688587428571428</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.0673863828571428</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.143840914285714</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.19808504</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.29655104</c:v>
+                  <c:v>44.863999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,33 +2437,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2016735520"/>
-        <c:axId val="-2016732304"/>
+        <c:axId val="404787560"/>
+        <c:axId val="404786776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2016735520"/>
+        <c:axId val="404788344"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周波数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>f(kHz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41762860892388459"/>
+              <c:y val="0.87037037037037035"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2053,33 +2553,82 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2016732304"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="404788736"/>
+        <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2016732304"/>
+        <c:axId val="404788736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>誘電率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2115,8 +2664,106 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2016735520"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="404788344"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404786776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404787560"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404787560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404786776"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2127,6 +2774,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2185,6 +2864,248 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>虚部</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.107236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.618114285714284E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6938857142857118E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4434285714285703E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4994285714285717E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4902285714285699E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5028571428571417E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9325714285714268E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6022285714285714E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.0445714285714286E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8079999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2302857142857144E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0609142857142853E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5955428571428564E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8960000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9979417142857148E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1407210285714283E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2231737142857144E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9136228571428571E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2378800000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.1687657142857142E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.0846159999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.6678143999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3022111999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.559813291428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.17017679999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.17105319999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.28440399999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.38210702857142859</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.53267933142857127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404789912"/>
+        <c:axId val="404791088"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -2225,88 +3146,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2321,319 +3242,91 @@
                   <c:v>56.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.57714285714285</c:v>
+                  <c:v>56.577142857142853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.02285714285713</c:v>
+                  <c:v>57.022857142857134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.25714285714285</c:v>
+                  <c:v>57.257142857142853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.42857142857143</c:v>
+                  <c:v>57.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.61714285714285</c:v>
+                  <c:v>57.617142857142852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.71428571428571</c:v>
+                  <c:v>57.714285714285708</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.77142857142857</c:v>
+                  <c:v>57.771428571428565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.91428571428571</c:v>
+                  <c:v>57.914285714285711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.44571428571428</c:v>
+                  <c:v>50.445714285714281</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.08</c:v>
+                  <c:v>58.079999999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58.11428571428571</c:v>
+                  <c:v>58.114285714285714</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.17142857142856</c:v>
+                  <c:v>58.171428571428564</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.17142857142856</c:v>
+                  <c:v>58.171428571428564</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58.28571428571428</c:v>
+                  <c:v>58.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58.3257142857143</c:v>
+                  <c:v>58.325714285714291</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58.37771428571429</c:v>
+                  <c:v>58.377714285714291</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.50457142857143</c:v>
+                  <c:v>58.504571428571431</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.61942857142857</c:v>
+                  <c:v>58.619428571428571</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>58.84</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.02857142857142</c:v>
+                  <c:v>59.028571428571425</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59.54857142857142</c:v>
+                  <c:v>59.548571428571421</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61.568</c:v>
+                  <c:v>61.567999999999991</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>120.2742857142857</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.74068571428571</c:v>
+                  <c:v>52.740685714285711</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56.53714285714285</c:v>
+                  <c:v>56.537142857142854</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.96</c:v>
+                  <c:v>53.959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>58.64</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57.98285714285714</c:v>
+                  <c:v>57.982857142857142</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56.56571428571427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>虚部</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$G$2:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.107236</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0961811428571428</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0969388571428571</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0744342857142857</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0849942857142857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0749022857142857</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0750285714285714</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0693257142857143</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0660222857142857</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.00504457142857143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.05808</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0523028571428571</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0506091428571428</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0459554285714286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.04896</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0299794171428571</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0314072102857143</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0222317371428571</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.00791362285714285</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.00923788</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.0116876571428571</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.03084616</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.066678144</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.302211199999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.0855981329142857</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.1701768</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.1710532</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.284404</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.382107028571429</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.532679331428571</c:v>
+                  <c:v>56.565714285714272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,33 +3341,80 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2021430944"/>
-        <c:axId val="-2021439936"/>
+        <c:axId val="456802360"/>
+        <c:axId val="456796480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2021430944"/>
+        <c:axId val="404789912"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周波数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>f(kHz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2710,33 +3450,82 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2021439936"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="404791088"/>
+        <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2021439936"/>
+        <c:axId val="404791088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="140"/>
+          <c:min val="-20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>誘電率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2772,8 +3561,106 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2021430944"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="404789912"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456796480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456802360"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456802360"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456796480"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2784,6 +3671,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2842,6 +3761,248 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>虚部</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.12822920000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.652571428571428E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0972571428571422E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.120312E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1305548571428559E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9907599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2340005714285709E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8899485714285706E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5489142857142853E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.210885714285714E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5216188571428567E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6864582857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5587982857142852E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8036E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1293599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.874057142857143E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0308342857142858E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.994470857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.7372285714285707E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.0645600000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.6817142857142843E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.11865342857142856</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.18942758857142858</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.57358857142857</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.20047771428571423</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.31333937142857138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.36174171428571422</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.56630262857142855</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.59869285714285703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.99336342857142867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="456802752"/>
+        <c:axId val="456796088"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -2882,88 +4043,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2978,319 +4139,91 @@
                   <c:v>84.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.02857142857142</c:v>
+                  <c:v>85.028571428571425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.2342857142857</c:v>
+                  <c:v>85.234285714285704</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>85.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.50285714285712</c:v>
+                  <c:v>85.502857142857124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.58228571428572</c:v>
+                  <c:v>85.582285714285717</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.66285714285713</c:v>
+                  <c:v>85.662857142857135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.78857142857142</c:v>
+                  <c:v>85.788571428571416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.82857142857142</c:v>
+                  <c:v>85.828571428571422</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.3142857142857</c:v>
+                  <c:v>78.314285714285703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>85.89314285714285</c:v>
+                  <c:v>85.893142857142848</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.93142857142857</c:v>
+                  <c:v>85.931428571428569</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.86571428571427</c:v>
+                  <c:v>85.865714285714276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>85.88571428571428</c:v>
+                  <c:v>85.885714285714286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>85.97142857142856</c:v>
+                  <c:v>85.971428571428561</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85.92571428571427</c:v>
+                  <c:v>85.925714285714278</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.90285714285714</c:v>
+                  <c:v>85.902857142857144</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.96857142857142</c:v>
+                  <c:v>85.968571428571423</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86.13142857142856</c:v>
+                  <c:v>86.131428571428557</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>86.48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>86.81714285714284</c:v>
+                  <c:v>86.817142857142841</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>87.89142857142856</c:v>
+                  <c:v>87.891428571428563</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92.7657142857143</c:v>
+                  <c:v>92.765714285714296</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>513.2571428571428</c:v>
+                  <c:v>513.25714285714287</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>72.1142857142857</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>80.34342857142856</c:v>
+                  <c:v>80.343428571428561</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.36285714285714</c:v>
+                  <c:v>75.362857142857138</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85.80342857142857</c:v>
+                  <c:v>85.803428571428569</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>86.14285714285714</c:v>
+                  <c:v>86.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>80.43428571428572</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>虚部</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet5!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet5!$G$2:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.1282292</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0765257142857143</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0809725714285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06120312</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0613055485714285</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0599076</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0523400057142857</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0488994857142857</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0454891428571428</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.0321088571428571</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0352161885714286</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0368645828571428</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0255879828571428</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.018036</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0312936</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.00687405714285714</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.0103083428571429</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.0199447085714286</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.0473722857142857</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.0406456</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.0868171428571428</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.118653428571429</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.189427588571429</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>101.5735885714286</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.200477714285714</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.313339371428571</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.361741714285714</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.566302628571429</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.598692857142857</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.993363428571429</c:v>
+                  <c:v>80.434285714285721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3305,33 +4238,80 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2089842352"/>
-        <c:axId val="-2045794416"/>
+        <c:axId val="456798440"/>
+        <c:axId val="456801184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2089842352"/>
+        <c:axId val="456802752"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周波数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>f(kHz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3367,33 +4347,82 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045794416"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="456796088"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2045794416"/>
+        <c:axId val="456796088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>誘電率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3429,8 +4458,106 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089842352"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="456802752"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456801184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456798440"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456798440"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456801184"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3441,6 +4568,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3499,6 +4658,248 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>虚部</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.10108342857142856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5823617142857129E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8684571428571423E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4757942857142851E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9431999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6576000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3033828571428576E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0200228571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6113599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.7287314285714271E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4787914285714282E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6197828571428566E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7650285714285712E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.9873142857142844E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2892360000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.7449188571428577E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.18153685714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.31451382857142857</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.66403028571428568</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.94236765714285708</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.4395865142857143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.0624571428571432</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.4131839999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10.089514285714285</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.1367828571428569</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.3041519999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.9756617142857138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.0149039999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.9142857142857137</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10.370399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="456798048"/>
+        <c:axId val="456796872"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -3539,88 +4940,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3632,322 +5033,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>157.9428571428571</c:v>
+                  <c:v>157.94285714285712</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>160.5085714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162.5714285714286</c:v>
+                  <c:v>162.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>163.9428571428571</c:v>
+                  <c:v>163.94285714285712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165.3142857142857</c:v>
+                  <c:v>165.31428571428569</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>166.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167.8285714285715</c:v>
+                  <c:v>167.82857142857145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>168.4571428571429</c:v>
+                  <c:v>168.45714285714286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168.9142857142857</c:v>
+                  <c:v>168.91428571428568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>161.8285714285714</c:v>
+                  <c:v>161.82857142857139</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>169.6971428571428</c:v>
+                  <c:v>169.69714285714284</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>169.9428571428571</c:v>
+                  <c:v>169.94285714285712</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>169.7142857142857</c:v>
+                  <c:v>169.71428571428569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>169.9428571428571</c:v>
+                  <c:v>169.94285714285712</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>170.44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>170.3657142857143</c:v>
+                  <c:v>170.36571428571429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170.4571428571429</c:v>
+                  <c:v>170.45714285714286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>170.9314285714286</c:v>
+                  <c:v>170.93142857142857</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>172.0285714285714</c:v>
+                  <c:v>172.02857142857141</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>173.8685714285714</c:v>
+                  <c:v>173.86857142857141</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175.9885714285714</c:v>
+                  <c:v>175.98857142857142</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>181.7142857142857</c:v>
+                  <c:v>181.71428571428572</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>210.1714285714285</c:v>
+                  <c:v>210.17142857142855</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-63.25714285714285</c:v>
+                  <c:v>-63.257142857142853</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>124.9714285714286</c:v>
+                  <c:v>124.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>154.64</c:v>
+                  <c:v>154.63999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>143.6457142857143</c:v>
+                  <c:v>143.64571428571429</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>317.6</c:v>
+                  <c:v>317.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>126.6285714285714</c:v>
+                  <c:v>126.62857142857142</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>139.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>虚部</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet6!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet6!$G$2:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.101083428571429</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0958236171428571</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0786845714285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0747579428571428</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.069432</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.056576</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0530338285714286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0502002285714286</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0461136</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.0572873142857143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0347879142857143</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0361978285714286</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0176502857142857</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.00798731428571428</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.06289236</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.0974491885714286</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.181536857142857</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.314513828571429</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.664030285714286</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.942367657142857</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.439586514285714</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.062457142857143</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-3.413184</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-10.08951428571429</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-3.136782857142857</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-5.304151999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-5.975661714285713</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-5.014904</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-7.914285714285714</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-10.3704</c:v>
+                  <c:v>139.19999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3962,33 +5135,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2040876304"/>
-        <c:axId val="-2040989168"/>
+        <c:axId val="456797656"/>
+        <c:axId val="456803536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2040876304"/>
+        <c:axId val="456798048"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周波数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>f(kHz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42318416447944013"/>
+              <c:y val="0.8657407407407407"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4024,33 +5251,82 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2040989168"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="456796872"/>
+        <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2040989168"/>
+        <c:axId val="456796872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>誘電率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4086,8 +5362,105 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2040876304"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="456798048"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456803536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456797656"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456797656"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456803536"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4098,6 +5471,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7510,16 +8915,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7584,16 +8989,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7621,16 +9026,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7692,7 +9097,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7954,13 +9359,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -8015,6 +9420,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -8679,6 +10087,1518 @@
       <c r="G31">
         <f t="shared" si="2"/>
         <v>1.319490857142857</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="3">1.75/10000000000000</f>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C123">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C124">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C125">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C126">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C127">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C128">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C129">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C130">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="4">1.75/10000000000000</f>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C132">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C133">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C134">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C135">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C136">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C137">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C138">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C139">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C140">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C141">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C142">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C143">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C144">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C145">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C146">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C147">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C148">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C149">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C150">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C151">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C152">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C153">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C154">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C155">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C156">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C157">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C158">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C159">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C160">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C161">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C162">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C163">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C164">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C165">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C166">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C167">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C168">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C169">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C170">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C171">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C172">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C173">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C174">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C175">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C176">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C177">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C178">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C179">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C180">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C181">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C182">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C183">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C184">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C185">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C186">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C187">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C188">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C189">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C190">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C191">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C192">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C193">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C194">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C195">
+        <f t="shared" ref="C195:C258" si="5">1.75/10000000000000</f>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C196">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C197">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C198">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C199">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C200">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C201">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C202">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C203">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C204">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C205">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C206">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C207">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C208">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C209">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C210">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C211">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C212">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C213">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C214">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C215">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C216">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C217">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C218">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C219">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C220">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C221">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C222">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C223">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C224">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C225">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C226">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C227">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C228">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C229">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C230">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C231">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C232">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C233">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C234">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C235">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C236">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C237">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C238">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C239">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C240">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C241">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C242">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C243">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C244">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C245">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C246">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C247">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C248">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C249">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C250">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C251">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C252">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C253">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C254">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C255">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C256">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C257">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C258">
+        <f t="shared" si="5"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C259">
+        <f t="shared" ref="C259:C283" si="6">1.75/10000000000000</f>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C260">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C261">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C262">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C263">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C264">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C265">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C266">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C267">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C268">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C269">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C270">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C271">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C272">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C273">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C274">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C275">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C276">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C277">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C278">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C279">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C280">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C281">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C282">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C283">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000001E-13</v>
       </c>
     </row>
   </sheetData>
@@ -8692,11 +11612,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -9429,13 +12349,10 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -10164,11 +13081,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -10898,13 +13815,10 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -11634,13 +14548,10 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">

--- a/誘電体/周波数特性.xlsx
+++ b/誘電体/周波数特性.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2016実験\誘電体\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasetakumi/Desktop/experiment/誘電体/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6810" activeTab="5"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,12 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -77,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +91,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -111,8 +132,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -121,8 +148,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -198,88 +227,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,91 +320,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.10765714285714284</c:v>
+                  <c:v>0.107657142857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0496571428571426</c:v>
+                  <c:v>1.049657142857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85942857142857132</c:v>
+                  <c:v>0.859428571428571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75199999999999989</c:v>
+                  <c:v>0.752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85942857142857132</c:v>
+                  <c:v>0.859428571428571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72360000000000002</c:v>
+                  <c:v>0.7236</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69679999999999997</c:v>
+                  <c:v>0.6968</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69709714285714286</c:v>
+                  <c:v>0.697097142857143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66985714285714282</c:v>
+                  <c:v>0.669857142857143</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7005714285714282E-3</c:v>
+                  <c:v>0.00770057142857143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6985714285714273E-2</c:v>
+                  <c:v>0.0669857142857143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4992000000000003E-2</c:v>
+                  <c:v>0.074992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5668571428571413E-2</c:v>
+                  <c:v>0.0856685714285714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0983999999999982E-2</c:v>
+                  <c:v>0.090984</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10166628571428571</c:v>
+                  <c:v>0.101666285714286</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12034285714285713</c:v>
+                  <c:v>0.120342857142857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13365714285714286</c:v>
+                  <c:v>0.133657142857143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1523365714285714</c:v>
+                  <c:v>0.152336571428571</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18173485714285711</c:v>
+                  <c:v>0.181734857142857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.20841599999999999</c:v>
+                  <c:v>0.208416</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23785885714285712</c:v>
+                  <c:v>0.237858857142857</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.7842285714285708</c:v>
+                  <c:v>2.784228571428571</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.34289999999999993</c:v>
+                  <c:v>0.3429</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2006342857142851</c:v>
+                  <c:v>4.200634285714285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.46758857142857135</c:v>
+                  <c:v>0.467588571428571</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5869359999999999</c:v>
+                  <c:v>0.586936</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.70999771428571412</c:v>
+                  <c:v>0.709997714285714</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8352628571428572</c:v>
+                  <c:v>0.835262857142857</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2119257142857141</c:v>
+                  <c:v>1.211925714285714</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.319490857142857</c:v>
@@ -393,8 +422,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403605880"/>
-        <c:axId val="403600000"/>
+        <c:axId val="-2108453536"/>
+        <c:axId val="-2108444992"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -440,88 +469,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,19 +562,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>26.914285714285711</c:v>
+                  <c:v>26.91428571428571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.914285714285711</c:v>
+                  <c:v>26.91428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.857142857142854</c:v>
+                  <c:v>26.85714285714285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.857142857142854</c:v>
+                  <c:v>26.85714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.857142857142854</c:v>
+                  <c:v>26.85714285714285</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>26.8</c:v>
@@ -554,28 +583,28 @@
                   <c:v>26.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.811428571428571</c:v>
+                  <c:v>26.81142857142857</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>26.79428571428571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.251428571428569</c:v>
+                  <c:v>19.25142857142857</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>26.79428571428571</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.782857142857143</c:v>
+                  <c:v>26.78285714285714</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.771428571428565</c:v>
+                  <c:v>26.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.759999999999994</c:v>
+                  <c:v>26.75999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.754285714285714</c:v>
+                  <c:v>26.75428571428571</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>26.74285714285714</c:v>
@@ -584,43 +613,43 @@
                   <c:v>26.73142857142857</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.725714285714282</c:v>
+                  <c:v>26.72571428571428</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.725714285714282</c:v>
+                  <c:v>26.72571428571428</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>26.72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.725714285714282</c:v>
+                  <c:v>26.72571428571428</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.771428571428565</c:v>
+                  <c:v>26.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.999999999999996</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6514285714285704</c:v>
+                  <c:v>7.65142857142857</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.977142857142855</c:v>
+                  <c:v>25.97714285714286</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.319999999999997</c:v>
+                  <c:v>26.32</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>26.10285714285714</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.685714285714287</c:v>
+                  <c:v>26.68571428571429</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.234285714285711</c:v>
+                  <c:v>27.23428571428571</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.337142857142855</c:v>
+                  <c:v>26.33714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,13 +664,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404790304"/>
-        <c:axId val="404787168"/>
+        <c:axId val="-2108435296"/>
+        <c:axId val="-2108438672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403605880"/>
+        <c:axId val="-2108453536"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -752,16 +781,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403600000"/>
-        <c:crossesAt val="-10"/>
+        <c:crossAx val="-2108444992"/>
+        <c:crossesAt val="-10.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403600000"/>
+        <c:axId val="-2108444992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
-          <c:min val="-10"/>
+          <c:max val="30.0"/>
+          <c:min val="-10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -863,15 +892,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403605880"/>
+        <c:crossAx val="-2108453536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404787168"/>
+        <c:axId val="-2108438672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-10"/>
+          <c:min val="-10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -912,14 +941,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404790304"/>
+        <c:crossAx val="-2108435296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404790304"/>
+        <c:axId val="-2108435296"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -961,7 +990,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404787168"/>
+        <c:crossAx val="-2108438672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1103,88 +1132,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,94 +1225,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.10251428571428571</c:v>
+                  <c:v>0.102514285714286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11970000000000001</c:v>
+                  <c:v>0.1197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5743999999999996E-2</c:v>
+                  <c:v>0.095744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.522742857142857E-2</c:v>
+                  <c:v>0.0752274285714286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2066285714285703E-2</c:v>
+                  <c:v>0.0820662857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5214857142857153E-2</c:v>
+                  <c:v>0.0752148571428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2038857142857122E-2</c:v>
+                  <c:v>0.0820388571428571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8633714285714279E-2</c:v>
+                  <c:v>0.0786337142857143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1771999999999989E-2</c:v>
+                  <c:v>0.071772</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9885714285714265E-3</c:v>
+                  <c:v>0.00798857142857142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8620571428571415E-2</c:v>
+                  <c:v>0.0786205714285714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.8607428571428564E-2</c:v>
+                  <c:v>0.0786074285714286</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8581142857142863E-2</c:v>
+                  <c:v>0.0785811428571429</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8567999999999985E-2</c:v>
+                  <c:v>0.078568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8567999999999985E-2</c:v>
+                  <c:v>0.078568</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8554857142857135E-2</c:v>
+                  <c:v>0.0785548571428571</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.8554857142857135E-2</c:v>
+                  <c:v>0.0785548571428571</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.1970285714285704E-2</c:v>
+                  <c:v>0.0819702857142857</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.2066285714285703E-2</c:v>
+                  <c:v>0.0820662857142857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.2066285714285703E-2</c:v>
+                  <c:v>0.0820662857142857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.2175999999999985E-2</c:v>
+                  <c:v>0.082176</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.5554285714285713E-2</c:v>
+                  <c:v>0.0755542857142857</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.9622857142857125E-2</c:v>
+                  <c:v>0.0696228571428571</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1056091428571428</c:v>
+                  <c:v>1.105609142857143</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.9739542857142858E-2</c:v>
+                  <c:v>0.0697395428571428</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.8900822857142853E-2</c:v>
+                  <c:v>0.0489008228571428</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.0980828571428556E-2</c:v>
+                  <c:v>0.0509808285714285</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4364457142857138E-2</c:v>
+                  <c:v>0.0243644571428571</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.3880000000000005E-4</c:v>
+                  <c:v>-0.0003388</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.340514285714285E-2</c:v>
+                  <c:v>-0.0434051428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,8 +1327,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404787952"/>
-        <c:axId val="404785208"/>
+        <c:axId val="-2108279424"/>
+        <c:axId val="-2108273568"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1345,88 +1374,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,94 +1467,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>34.171428571428571</c:v>
+                  <c:v>34.17142857142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.200000000000003</c:v>
+                  <c:v>34.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.194285714285712</c:v>
+                  <c:v>34.19428571428571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.194285714285712</c:v>
+                  <c:v>34.19428571428571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.194285714285712</c:v>
+                  <c:v>34.19428571428571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.188571428571429</c:v>
+                  <c:v>34.18857142857142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.182857142857138</c:v>
+                  <c:v>34.18285714285714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.188571428571429</c:v>
+                  <c:v>34.18857142857142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.177142857142854</c:v>
+                  <c:v>34.17714285714285</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.628571428571426</c:v>
+                  <c:v>26.62857142857143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.182857142857138</c:v>
+                  <c:v>34.18285714285714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.177142857142854</c:v>
+                  <c:v>34.17714285714285</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.165714285714287</c:v>
+                  <c:v>34.16571428571429</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.159999999999997</c:v>
+                  <c:v>34.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.159999999999997</c:v>
+                  <c:v>34.16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.154285714285713</c:v>
+                  <c:v>34.15428571428571</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.154285714285713</c:v>
+                  <c:v>34.15428571428571</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.154285714285713</c:v>
+                  <c:v>34.15428571428571</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.194285714285712</c:v>
+                  <c:v>34.19428571428571</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.194285714285712</c:v>
+                  <c:v>34.19428571428571</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.239999999999995</c:v>
+                  <c:v>34.24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.342857142857142</c:v>
+                  <c:v>34.34285714285714</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.811428571428564</c:v>
+                  <c:v>34.81142857142856</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.154285714285713</c:v>
+                  <c:v>53.15428571428571</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.588571428571427</c:v>
+                  <c:v>32.58857142857142</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33.493714285714283</c:v>
+                  <c:v>33.49371428571428</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32.890857142857136</c:v>
+                  <c:v>32.89085714285714</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34.028571428571425</c:v>
+                  <c:v>34.02857142857142</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.880000000000003</c:v>
+                  <c:v>33.88</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.388571428571424</c:v>
+                  <c:v>33.38857142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,13 +1569,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404784816"/>
-        <c:axId val="404784424"/>
+        <c:axId val="-2108263936"/>
+        <c:axId val="-2108267312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404787952"/>
+        <c:axId val="-2108279424"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1649,16 +1678,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404785208"/>
-        <c:crossesAt val="-10"/>
+        <c:crossAx val="-2108273568"/>
+        <c:crossesAt val="-10.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404785208"/>
+        <c:axId val="-2108273568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
-          <c:min val="-10"/>
+          <c:max val="60.0"/>
+          <c:min val="-10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1760,15 +1789,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404787952"/>
+        <c:crossAx val="-2108279424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404784424"/>
+        <c:axId val="-2108267312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-10"/>
+          <c:min val="-10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1809,14 +1838,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404784816"/>
+        <c:crossAx val="-2108263936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404784816"/>
+        <c:axId val="-2108263936"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1858,7 +1887,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404784424"/>
+        <c:crossAx val="-2108267312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2000,88 +2029,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,94 +2122,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.11050971428571427</c:v>
+                  <c:v>0.110509714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6815999999999985E-2</c:v>
+                  <c:v>0.096816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7671428571428553E-2</c:v>
+                  <c:v>0.0876714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6971999999999989E-2</c:v>
+                  <c:v>0.096972</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8578857142857131E-2</c:v>
+                  <c:v>0.0785788571428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8617714285714263E-2</c:v>
+                  <c:v>0.0786177142857143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3304000000000003E-2</c:v>
+                  <c:v>0.083304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9471428571428559E-2</c:v>
+                  <c:v>0.0694714285714285</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7577142857142862E-3</c:v>
+                  <c:v>0.00775771428571428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9548571428571432E-2</c:v>
+                  <c:v>0.0695485714285714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9591428571428568E-2</c:v>
+                  <c:v>0.0695914285714286</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9582857142857155E-2</c:v>
+                  <c:v>0.0695828571428571</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0334857142857141E-2</c:v>
+                  <c:v>0.0603348571428571</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0371999999999995E-2</c:v>
+                  <c:v>0.060372</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5727999999999993E-2</c:v>
+                  <c:v>0.055728</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6663771428571423E-2</c:v>
+                  <c:v>0.0566637714285714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1109142857142853E-2</c:v>
+                  <c:v>0.0511091428571428</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3247657142857138E-2</c:v>
+                  <c:v>0.0432476571428571</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0046514285714277E-2</c:v>
+                  <c:v>0.0400465142857143</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2086354285714283E-2</c:v>
+                  <c:v>0.0320863542857143</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.781005714285714E-2</c:v>
+                  <c:v>0.0178100571428571</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.5486171428571424E-3</c:v>
+                  <c:v>-0.00354861714285714</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3732743085714285</c:v>
+                  <c:v>1.373274308571428</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.7069287542857144E-2</c:v>
+                  <c:v>-0.0170692875428571</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-6.8858742857142843E-2</c:v>
+                  <c:v>-0.0688587428571428</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-6.7386382857142851E-2</c:v>
+                  <c:v>-0.0673863828571428</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.14384091428571427</c:v>
+                  <c:v>-0.143840914285714</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.19808503999999999</c:v>
+                  <c:v>-0.19808504</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.29655103999999999</c:v>
+                  <c:v>-0.29655104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,8 +2224,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404788344"/>
-        <c:axId val="404788736"/>
+        <c:axId val="-2108219200"/>
+        <c:axId val="-2108213344"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2242,88 +2271,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,7 +2364,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>46.045714285714283</c:v>
+                  <c:v>46.04571428571428</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>46.08</c:v>
@@ -2344,16 +2373,16 @@
                   <c:v>46.10285714285714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.142857142857132</c:v>
+                  <c:v>46.14285714285713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.177142857142854</c:v>
+                  <c:v>46.17714285714285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.222857142857137</c:v>
+                  <c:v>46.22285714285713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.245714285714278</c:v>
+                  <c:v>46.24571428571428</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>46.28</c:v>
@@ -2362,19 +2391,19 @@
                   <c:v>46.31428571428571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.78857142857143</c:v>
+                  <c:v>38.78857142857142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.36571428571429</c:v>
+                  <c:v>46.3657142857143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.394285714285708</c:v>
+                  <c:v>46.39428571428571</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.388571428571431</c:v>
+                  <c:v>46.38857142857143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.411428571428573</c:v>
+                  <c:v>46.41142857142857</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>46.44</c:v>
@@ -2383,46 +2412,46 @@
                   <c:v>46.44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.445714285714281</c:v>
+                  <c:v>46.44571428571428</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46.462857142857139</c:v>
+                  <c:v>46.46285714285714</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.502857142857138</c:v>
+                  <c:v>46.50285714285714</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46.565714285714279</c:v>
+                  <c:v>46.56571428571428</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.637142857142848</c:v>
+                  <c:v>46.63714285714285</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.868571428571421</c:v>
+                  <c:v>46.86857142857142</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>47.95428571428571</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>77.245714285714286</c:v>
+                  <c:v>77.24571428571428</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42.887657142857144</c:v>
+                  <c:v>42.88765714285714</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45.005714285714284</c:v>
+                  <c:v>45.00571428571428</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43.475085714285711</c:v>
+                  <c:v>43.47508571428571</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>46.10285714285714</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45.641714285714279</c:v>
+                  <c:v>45.64171428571428</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44.863999999999997</c:v>
+                  <c:v>44.864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2437,13 +2466,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404787560"/>
-        <c:axId val="404786776"/>
+        <c:axId val="-2108203712"/>
+        <c:axId val="-2108207088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404788344"/>
+        <c:axId val="-2108219200"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2483,8 +2512,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41762860892388459"/>
-              <c:y val="0.87037037037037035"/>
+              <c:x val="0.417628608923885"/>
+              <c:y val="0.87037037037037"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2553,16 +2582,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404788736"/>
-        <c:crossesAt val="-10"/>
+        <c:crossAx val="-2108213344"/>
+        <c:crossesAt val="-10.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404788736"/>
+        <c:axId val="-2108213344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90"/>
-          <c:min val="-10"/>
+          <c:max val="90.0"/>
+          <c:min val="-10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2664,15 +2693,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404788344"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="-2108219200"/>
+        <c:crossesAt val="1.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404786776"/>
+        <c:axId val="-2108207088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-10"/>
+          <c:min val="-10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2713,14 +2742,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404787560"/>
+        <c:crossAx val="-2108203712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404787560"/>
+        <c:axId val="-2108203712"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2762,7 +2791,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404786776"/>
+        <c:crossAx val="-2108207088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2904,88 +2933,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3000,91 +3029,91 @@
                   <c:v>0.107236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.618114285714284E-2</c:v>
+                  <c:v>0.0961811428571428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6938857142857118E-2</c:v>
+                  <c:v>0.0969388571428571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4434285714285703E-2</c:v>
+                  <c:v>0.0744342857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4994285714285717E-2</c:v>
+                  <c:v>0.0849942857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4902285714285699E-2</c:v>
+                  <c:v>0.0749022857142857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5028571428571417E-2</c:v>
+                  <c:v>0.0750285714285714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9325714285714268E-2</c:v>
+                  <c:v>0.0693257142857143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6022285714285714E-2</c:v>
+                  <c:v>0.0660222857142857</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.0445714285714286E-3</c:v>
+                  <c:v>-0.00504457142857143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8079999999999993E-2</c:v>
+                  <c:v>0.05808</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2302857142857144E-2</c:v>
+                  <c:v>0.0523028571428571</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0609142857142853E-2</c:v>
+                  <c:v>0.0506091428571428</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5955428571428564E-2</c:v>
+                  <c:v>0.0459554285714286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8960000000000004E-2</c:v>
+                  <c:v>0.04896</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9979417142857148E-2</c:v>
+                  <c:v>0.0299794171428571</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1407210285714283E-2</c:v>
+                  <c:v>0.0314072102857143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2231737142857144E-2</c:v>
+                  <c:v>0.0222317371428571</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9136228571428571E-3</c:v>
+                  <c:v>0.00791362285714285</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.2378800000000004E-3</c:v>
+                  <c:v>0.00923788</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.1687657142857142E-2</c:v>
+                  <c:v>-0.0116876571428571</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.0846159999999997E-2</c:v>
+                  <c:v>-0.03084616</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6.6678143999999995E-2</c:v>
+                  <c:v>-0.066678144</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3022111999999995</c:v>
+                  <c:v>4.302211199999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8.559813291428571E-2</c:v>
+                  <c:v>-0.0855981329142857</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.17017679999999999</c:v>
+                  <c:v>-0.1701768</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.17105319999999999</c:v>
+                  <c:v>-0.1710532</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.28440399999999999</c:v>
+                  <c:v>-0.284404</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.38210702857142859</c:v>
+                  <c:v>-0.382107028571429</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.53267933142857127</c:v>
+                  <c:v>-0.532679331428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3099,8 +3128,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404789912"/>
-        <c:axId val="404791088"/>
+        <c:axId val="-2108158496"/>
+        <c:axId val="-2108152640"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3146,88 +3175,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3242,91 +3271,91 @@
                   <c:v>56.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.577142857142853</c:v>
+                  <c:v>56.57714285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.022857142857134</c:v>
+                  <c:v>57.02285714285713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.257142857142853</c:v>
+                  <c:v>57.25714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.428571428571431</c:v>
+                  <c:v>57.42857142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.617142857142852</c:v>
+                  <c:v>57.61714285714285</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.714285714285708</c:v>
+                  <c:v>57.71428571428571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.771428571428565</c:v>
+                  <c:v>57.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.914285714285711</c:v>
+                  <c:v>57.91428571428571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.445714285714281</c:v>
+                  <c:v>50.44571428571428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.079999999999991</c:v>
+                  <c:v>58.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58.114285714285714</c:v>
+                  <c:v>58.11428571428571</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.171428571428564</c:v>
+                  <c:v>58.17142857142856</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.171428571428564</c:v>
+                  <c:v>58.17142857142856</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58.285714285714285</c:v>
+                  <c:v>58.28571428571428</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58.325714285714291</c:v>
+                  <c:v>58.3257142857143</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58.377714285714291</c:v>
+                  <c:v>58.37771428571429</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.504571428571431</c:v>
+                  <c:v>58.50457142857143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.619428571428571</c:v>
+                  <c:v>58.61942857142857</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>58.84</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.028571428571425</c:v>
+                  <c:v>59.02857142857142</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59.548571428571421</c:v>
+                  <c:v>59.54857142857142</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61.567999999999991</c:v>
+                  <c:v>61.568</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>120.2742857142857</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.740685714285711</c:v>
+                  <c:v>52.74068571428571</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56.537142857142854</c:v>
+                  <c:v>56.53714285714285</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.959999999999994</c:v>
+                  <c:v>53.96</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>58.64</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57.982857142857142</c:v>
+                  <c:v>57.98285714285714</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56.565714285714272</c:v>
+                  <c:v>56.56571428571427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,13 +3370,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456802360"/>
-        <c:axId val="456796480"/>
+        <c:axId val="-2108143008"/>
+        <c:axId val="-2108146384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404789912"/>
+        <c:axId val="-2108158496"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3450,16 +3479,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404791088"/>
-        <c:crossesAt val="-20"/>
+        <c:crossAx val="-2108152640"/>
+        <c:crossesAt val="-20.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404791088"/>
+        <c:axId val="-2108152640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="140"/>
-          <c:min val="-20"/>
+          <c:max val="140.0"/>
+          <c:min val="-20.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3561,15 +3590,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404789912"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="-2108158496"/>
+        <c:crossesAt val="1.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456796480"/>
+        <c:axId val="-2108146384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-20"/>
+          <c:min val="-20.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -3610,14 +3639,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456802360"/>
+        <c:crossAx val="-2108143008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456802360"/>
+        <c:axId val="-2108143008"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3659,7 +3688,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456796480"/>
+        <c:crossAx val="-2108146384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3801,88 +3830,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3894,94 +3923,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.12822920000000002</c:v>
+                  <c:v>0.1282292</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.652571428571428E-2</c:v>
+                  <c:v>0.0765257142857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0972571428571422E-2</c:v>
+                  <c:v>0.0809725714285714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.120312E-2</c:v>
+                  <c:v>0.06120312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1305548571428559E-2</c:v>
+                  <c:v>0.0613055485714285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9907599999999998E-2</c:v>
+                  <c:v>0.0599076</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2340005714285709E-2</c:v>
+                  <c:v>0.0523400057142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8899485714285706E-2</c:v>
+                  <c:v>0.0488994857142857</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5489142857142853E-2</c:v>
+                  <c:v>0.0454891428571428</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.210885714285714E-2</c:v>
+                  <c:v>-0.0321088571428571</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5216188571428567E-2</c:v>
+                  <c:v>0.0352161885714286</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6864582857142857E-2</c:v>
+                  <c:v>0.0368645828571428</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5587982857142852E-2</c:v>
+                  <c:v>0.0255879828571428</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8036E-2</c:v>
+                  <c:v>0.018036</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1293599999999998E-2</c:v>
+                  <c:v>0.0312936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.874057142857143E-3</c:v>
+                  <c:v>-0.00687405714285714</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.0308342857142858E-2</c:v>
+                  <c:v>-0.0103083428571429</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.994470857142857E-2</c:v>
+                  <c:v>-0.0199447085714286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.7372285714285707E-2</c:v>
+                  <c:v>-0.0473722857142857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4.0645600000000004E-2</c:v>
+                  <c:v>-0.0406456</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.6817142857142843E-2</c:v>
+                  <c:v>-0.0868171428571428</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.11865342857142856</c:v>
+                  <c:v>-0.118653428571429</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.18942758857142858</c:v>
+                  <c:v>-0.189427588571429</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>101.57358857142857</c:v>
+                  <c:v>101.5735885714286</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.20047771428571423</c:v>
+                  <c:v>-0.200477714285714</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.31333937142857138</c:v>
+                  <c:v>-0.313339371428571</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.36174171428571422</c:v>
+                  <c:v>-0.361741714285714</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.56630262857142855</c:v>
+                  <c:v>-0.566302628571429</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.59869285714285703</c:v>
+                  <c:v>-0.598692857142857</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.99336342857142867</c:v>
+                  <c:v>-0.993363428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3996,8 +4025,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456802752"/>
-        <c:axId val="456796088"/>
+        <c:axId val="-2106967168"/>
+        <c:axId val="-2106961312"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4043,88 +4072,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4139,91 +4168,91 @@
                   <c:v>84.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.028571428571425</c:v>
+                  <c:v>85.02857142857142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.234285714285704</c:v>
+                  <c:v>85.2342857142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>85.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.502857142857124</c:v>
+                  <c:v>85.50285714285712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.582285714285717</c:v>
+                  <c:v>85.58228571428572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.662857142857135</c:v>
+                  <c:v>85.66285714285713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.788571428571416</c:v>
+                  <c:v>85.78857142857142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.828571428571422</c:v>
+                  <c:v>85.82857142857142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.314285714285703</c:v>
+                  <c:v>78.3142857142857</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>85.893142857142848</c:v>
+                  <c:v>85.89314285714285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.931428571428569</c:v>
+                  <c:v>85.93142857142857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.865714285714276</c:v>
+                  <c:v>85.86571428571427</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>85.885714285714286</c:v>
+                  <c:v>85.88571428571428</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>85.971428571428561</c:v>
+                  <c:v>85.97142857142856</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85.925714285714278</c:v>
+                  <c:v>85.92571428571427</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.902857142857144</c:v>
+                  <c:v>85.90285714285714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.968571428571423</c:v>
+                  <c:v>85.96857142857142</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86.131428571428557</c:v>
+                  <c:v>86.13142857142856</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>86.48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>86.817142857142841</c:v>
+                  <c:v>86.81714285714284</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>87.891428571428563</c:v>
+                  <c:v>87.89142857142856</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92.765714285714296</c:v>
+                  <c:v>92.7657142857143</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>513.25714285714287</c:v>
+                  <c:v>513.2571428571428</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>72.1142857142857</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>80.343428571428561</c:v>
+                  <c:v>80.34342857142856</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.362857142857138</c:v>
+                  <c:v>75.36285714285714</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85.803428571428569</c:v>
+                  <c:v>85.80342857142857</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>86.142857142857139</c:v>
+                  <c:v>86.14285714285714</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>80.434285714285721</c:v>
+                  <c:v>80.43428571428572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4238,13 +4267,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456798440"/>
-        <c:axId val="456801184"/>
+        <c:axId val="-2106951680"/>
+        <c:axId val="-2106955056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456802752"/>
+        <c:axId val="-2106967168"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4347,16 +4376,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456796088"/>
-        <c:crossesAt val="-100"/>
+        <c:crossAx val="-2106961312"/>
+        <c:crossesAt val="-100.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456796088"/>
+        <c:axId val="-2106961312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
-          <c:min val="-100"/>
+          <c:max val="600.0"/>
+          <c:min val="-100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4458,15 +4487,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456802752"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="-2106967168"/>
+        <c:crossesAt val="1.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456801184"/>
+        <c:axId val="-2106955056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-100"/>
+          <c:min val="-100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -4507,14 +4536,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456798440"/>
+        <c:crossAx val="-2106951680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456798440"/>
+        <c:axId val="-2106951680"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4556,7 +4585,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456801184"/>
+        <c:crossAx val="-2106955056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4698,88 +4727,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4791,94 +4820,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.10108342857142856</c:v>
+                  <c:v>0.101083428571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5823617142857129E-2</c:v>
+                  <c:v>0.0958236171428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8684571428571423E-2</c:v>
+                  <c:v>0.0786845714285714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4757942857142851E-2</c:v>
+                  <c:v>0.0747579428571428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9431999999999994E-2</c:v>
+                  <c:v>0.069432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6576000000000008E-2</c:v>
+                  <c:v>0.056576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3033828571428576E-2</c:v>
+                  <c:v>0.0530338285714286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0200228571428571E-2</c:v>
+                  <c:v>0.0502002285714286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6113599999999998E-2</c:v>
+                  <c:v>0.0461136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.7287314285714271E-2</c:v>
+                  <c:v>-0.0572873142857143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4787914285714282E-2</c:v>
+                  <c:v>0.0347879142857143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6197828571428566E-2</c:v>
+                  <c:v>0.0361978285714286</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7650285714285712E-2</c:v>
+                  <c:v>0.0176502857142857</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.9873142857142844E-3</c:v>
+                  <c:v>0.00798731428571428</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.2892360000000008E-2</c:v>
+                  <c:v>0.06289236</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.7449188571428577E-2</c:v>
+                  <c:v>-0.0974491885714286</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.18153685714285714</c:v>
+                  <c:v>-0.181536857142857</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.31451382857142857</c:v>
+                  <c:v>-0.314513828571429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.66403028571428568</c:v>
+                  <c:v>-0.664030285714286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.94236765714285708</c:v>
+                  <c:v>-0.942367657142857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.4395865142857143</c:v>
+                  <c:v>-1.439586514285714</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.0624571428571432</c:v>
+                  <c:v>-2.062457142857143</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.4131839999999998</c:v>
+                  <c:v>-3.413184</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-10.089514285714285</c:v>
+                  <c:v>-10.08951428571429</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.1367828571428569</c:v>
+                  <c:v>-3.136782857142857</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-5.3041519999999993</c:v>
+                  <c:v>-5.304151999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5.9756617142857138</c:v>
+                  <c:v>-5.975661714285713</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-5.0149039999999996</c:v>
+                  <c:v>-5.014904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-7.9142857142857137</c:v>
+                  <c:v>-7.914285714285714</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-10.370399999999998</c:v>
+                  <c:v>-10.3704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4893,8 +4922,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456798048"/>
-        <c:axId val="456796872"/>
+        <c:axId val="-2106904608"/>
+        <c:axId val="-2106898752"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4940,88 +4969,88 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5033,94 +5062,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>157.94285714285712</c:v>
+                  <c:v>157.9428571428571</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>160.5085714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162.57142857142856</c:v>
+                  <c:v>162.5714285714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>163.94285714285712</c:v>
+                  <c:v>163.9428571428571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165.31428571428569</c:v>
+                  <c:v>165.3142857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>166.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167.82857142857145</c:v>
+                  <c:v>167.8285714285715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>168.45714285714286</c:v>
+                  <c:v>168.4571428571429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168.91428571428568</c:v>
+                  <c:v>168.9142857142857</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>161.82857142857139</c:v>
+                  <c:v>161.8285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>169.69714285714284</c:v>
+                  <c:v>169.6971428571428</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>169.94285714285712</c:v>
+                  <c:v>169.9428571428571</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>169.71428571428569</c:v>
+                  <c:v>169.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>169.94285714285712</c:v>
+                  <c:v>169.9428571428571</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>170.44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>170.36571428571429</c:v>
+                  <c:v>170.3657142857143</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170.45714285714286</c:v>
+                  <c:v>170.4571428571429</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>170.93142857142857</c:v>
+                  <c:v>170.9314285714286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>172.02857142857141</c:v>
+                  <c:v>172.0285714285714</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>173.86857142857141</c:v>
+                  <c:v>173.8685714285714</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175.98857142857142</c:v>
+                  <c:v>175.9885714285714</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>181.71428571428572</c:v>
+                  <c:v>181.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>210.17142857142855</c:v>
+                  <c:v>210.1714285714285</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-63.257142857142853</c:v>
+                  <c:v>-63.25714285714285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>124.97142857142856</c:v>
+                  <c:v>124.9714285714286</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>154.63999999999999</c:v>
+                  <c:v>154.64</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>143.64571428571429</c:v>
+                  <c:v>143.6457142857143</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>317.60000000000002</c:v>
+                  <c:v>317.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>126.62857142857142</c:v>
+                  <c:v>126.6285714285714</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>139.19999999999999</c:v>
+                  <c:v>139.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5135,13 +5164,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456797656"/>
-        <c:axId val="456803536"/>
+        <c:axId val="-2106889120"/>
+        <c:axId val="-2106892496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456798048"/>
+        <c:axId val="-2106904608"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5181,8 +5210,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42318416447944013"/>
-              <c:y val="0.8657407407407407"/>
+              <c:x val="0.42318416447944"/>
+              <c:y val="0.865740740740741"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5251,16 +5280,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456796872"/>
-        <c:crossesAt val="-100"/>
+        <c:crossAx val="-2106898752"/>
+        <c:crossesAt val="-100.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456796872"/>
+        <c:axId val="-2106898752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="350"/>
-          <c:min val="-100"/>
+          <c:max val="350.0"/>
+          <c:min val="-100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5362,12 +5391,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456798048"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="-2106904608"/>
+        <c:crossesAt val="1.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456803536"/>
+        <c:axId val="-2106892496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5410,14 +5439,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456797656"/>
+        <c:crossAx val="-2106889120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456797656"/>
+        <c:axId val="-2106889120"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5459,7 +5488,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456803536"/>
+        <c:crossAx val="-2106892496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9097,7 +9126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9362,10 +9391,10 @@
   <dimension ref="A1:G283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -11613,10 +11642,10 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F2" sqref="F2:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -12349,10 +12378,10 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -13081,11 +13110,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -13815,10 +13844,10 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F2" sqref="F2:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -14547,11 +14576,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
